--- a/data/trans_dic/P23_9_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P23_9_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe menos o muchas menos invitaciones de las que desea para distraerse y salir con otras personas</t>
+          <t>Población que recibe menos o muchas menos invitaciones de las que desea para distraerse y salir con otras personas (tasa de respuesta: 99,15%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>27,79%</t>
+          <t>16,89%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>22,37%</t>
+          <t>25,65%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,83%</t>
+          <t>15,4%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20,15%</t>
+          <t>12,94%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>29,08%</t>
+          <t>26,6%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>23,78%</t>
+          <t>38,28%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>23,66%</t>
+          <t>28,5%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>25,93%</t>
+          <t>33,41%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>21,21%</t>
+          <t>21,98%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>32,34%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>22,13%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>23,41%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,66; 49,35</t>
+          <t>6,21; 30,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,31; 33,04</t>
+          <t>10,7; 43,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,22; 26,66</t>
+          <t>5,06; 28,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,52; 28,13</t>
+          <t>3,55; 28,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,98; 39,03</t>
+          <t>15,7; 42,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,43; 32,26</t>
+          <t>25,81; 51,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,92; 35,1</t>
+          <t>16,41; 43,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,67; 32,84</t>
+          <t>19,45; 50,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,61; 26,92</t>
+          <t>13,35; 32,32</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>20,88; 44,46</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>13,45; 32,41</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>12,99; 34,83</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,64%</t>
+          <t>12,78%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,24%</t>
+          <t>19,19%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>14,87%</t>
+          <t>18,01%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,88%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>19,71%</t>
+          <t>12,86%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>16,87%</t>
+          <t>18,17%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>14,24%</t>
+          <t>14,72%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>17,46%</t>
+          <t>13,02%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>15,82%</t>
+          <t>12,82%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>18,68%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>16,41%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>12,8%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,28; 20,97</t>
+          <t>7,54; 19,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,96; 21,52</t>
+          <t>12,67; 32,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,75; 24,7</t>
+          <t>11,27; 31,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,8; 18,4</t>
+          <t>7,39; 20,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,14; 24,77</t>
+          <t>8,65; 17,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,25; 21,33</t>
+          <t>12,62; 23,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,22; 18,57</t>
+          <t>9,78; 20,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,27; 21,2</t>
+          <t>8,36; 19,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,54; 21,43</t>
+          <t>9,51; 17,1</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>14,63; 25,43</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>11,94; 23,69</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>9,17; 18,09</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>10,91%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>17,47%</t>
+          <t>21,36%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,69%</t>
+          <t>15,05%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>15,61%</t>
+          <t>12,05%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>16,35%</t>
+          <t>14,77%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>25,91%</t>
+          <t>15,82%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>24,31%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>16,88%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>20,58%</t>
+          <t>13,07%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>18,31%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>20,08%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>9,51%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,86; 15,39</t>
+          <t>6,74; 17,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,48; 25,14</t>
+          <t>13,95; 31,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,22; 19,89</t>
+          <t>9,51; 21,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,34; 20,56</t>
+          <t>6,43; 18,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,31; 21,28</t>
+          <t>9,87; 21,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,11; 31,74</t>
+          <t>10,99; 21,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,32; 16,43</t>
+          <t>18,07; 30,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,62; 21,58</t>
+          <t>4,0; 12,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,96; 24,21</t>
+          <t>9,11; 17,3</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>14,11; 24,1</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>15,83; 25,45</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>6,21; 13,43</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>15,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>18,3%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1431 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,14; 21,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,07; 21,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,06; 20,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,87; 18,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,02; 23,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,08; 24,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,29; 18,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,38; 21,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,87; 21,04</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>12,66%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>20,86%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>16,6%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>12,47%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>15,51%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>19,95%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>20,55%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>14,36%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>14,19%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>20,39%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>18,62%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>13,44%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>9,35; 16,71</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>16,33; 28,28</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>12,17; 24,55</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>8,65; 17,32</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>12,16; 19,81</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>16,04; 24,81</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>16,62; 24,78</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>10,79; 19,18</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>11,64; 16,91</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>17,28; 23,95</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>15,43; 22,84</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>10,81; 16,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe menos o muchas menos invitaciones de las que desea para distraerse y salir con otras personas (tasa de respuesta: 99,15%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>21359</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>25908</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>17210</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>22512</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>37018</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>43594</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>33664</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>60878</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>58377</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>69502</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>50873</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>83390</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>7851; 39082</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>10809; 43769</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5650; 32026</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>6178; 49223</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>21848; 58733</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>29398; 59138</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>19384; 51734</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>35436; 91788</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>35469; 85869</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>44877; 95528</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>30917; 74486</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>46283; 124059</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>54430</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>71615</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>70703</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>63473</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>59442</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>68174</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>54390</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>64425</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>113872</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>139789</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>125093</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>127898</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>32137; 81033</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>47295; 120345</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>44241; 125202</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>37240; 101764</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>39973; 83149</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>47368; 89561</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>36128; 75012</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>41346; 98539</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>84461; 151875</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>109516; 190316</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>90997; 180545</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>91556; 180680</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>36313</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>59871</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>40869</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>41610</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>62633</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>54184</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>78643</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>29241</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>98946</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>114055</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>119512</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>70851</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>22421; 59898</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>39108; 88673</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>25837; 59042</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>22187; 64702</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>41864; 90332</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>37651; 74090</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>58447; 99473</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>15997; 48858</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>68963; 130971</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>87886; 150092</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>94204; 151439</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>46281; 100061</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>112102</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>157394</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>128781</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>127595</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>159093</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>165951</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>166696</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>154544</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>271195</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>323346</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>295478</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>282139</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>82819; 148002</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>123228; 213339</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>94439; 190523</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>88554; 177216</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>124682; 203122</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>133397; 206334</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>134779; 200953</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>116152; 206476</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>222417; 323171</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>274095; 379852</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>244806; 362527</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>227095; 343955</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
